--- a/pred_ohlcv/54_21/2019-10-19 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 PLY ohlcv.xlsx
@@ -3616,7 +3616,7 @@
         <v>-1817944.5709</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2215977.6915</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1903473.1642</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2033544.1642</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2033544.1642</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1849188.2274</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1849188.2274</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2041175.448</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1935881.6183</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2228463.2704</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2228463.2704</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2228463.2704</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1970097.5942</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1970097.5942</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2063188.4093</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2063188.4093</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2111638.4994</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1880486.3764</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1784557.8914</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1784557.8914</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1784557.8914</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1939889.8839</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1939889.8839</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1931742.9805</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2081996.9614</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1983640.3345</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2264374.1796</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2264374.1796</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2264344.1796</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2311810.7495</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2311810.7495</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2311810.7495</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2198022.4267</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2198022.4267</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2771435.6643</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2769971.4638</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2594051.2388</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2594051.2388</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2402113.0233</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2402113.0233</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2516254.1479</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2516254.1479</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2430767.2085</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2357979.926</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2357979.926</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3085115.3155</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2849305.6818</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2631783.0245</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-2631783.0245</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-2661536.1088</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-2941986.7527</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-2941986.7527</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-2919406.7579</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-2524372.908</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-2524372.908</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2182894.4198</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2182894.4198</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2233391.0845</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3187427.978700001</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2347818.933000001</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2440349.519200001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2440349.519200001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2319763.099900001</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2107552.754200001</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2599764.325600001</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2809368.325600001</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-2288283.214200001</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2952193.396700001</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2952193.396700001</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2724553.950979081</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2724553.950979081</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-3016469.520979082</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3081242.248179082</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-3081242.248179082</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-3081242.248179082</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3087671.081779082</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-3065511.681879082</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-3065511.681879082</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-3065511.681879082</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-2586791.792579082</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-2586791.792579082</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-2926964.940279082</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-2926964.940279082</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-2551981.830679082</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-2551981.830679082</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-2551981.830679082</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-2551981.830679082</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-2551981.830679082</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-2551839.830679082</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-2667434.193379082</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-3037961.870479082</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-3414570.111079082</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-2738801.284879082</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-2738801.284879082</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-2738801.284879082</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-3183893.153379082</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-3669354.623679082</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-3669354.623679082</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-3397368.695079082</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-3752973.369179082</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-3922355.087479081</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-4013782.953879081</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-3715664.412579081</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-3715664.412579081</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-3481263.819479081</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-4048085.560979081</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-3989113.066479081</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-4450347.279079081</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-4301718.07147908</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-4301718.07147908</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4784963.58647908</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-4784963.58647908</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-4442022.02987908</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-4077574.45097908</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-4465258.76827908</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-3426917.143079081</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-3258842.487879081</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-3469645.557879081</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-3264023.39237908</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-3264023.39237908</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 PLY ohlcv.xlsx
@@ -9700,7 +9700,7 @@
         <v>-2182894.4198</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2233391.0845</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3187427.978700001</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2347785.949900001</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2347818.933000001</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2347851.916100001</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2440349.519200001</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2440349.519200001</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2319763.099900001</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2107552.754200001</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2599764.325600001</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2809368.325600001</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-2288283.214200001</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2952193.396700001</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2952193.396700001</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2724553.950979081</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2724553.950979081</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3016259.205279082</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-3715664.412579081</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-3481263.819479081</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-4048085.560979081</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-4469830.98477908</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-4450347.279079081</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-4450347.279079081</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-4595761.33127908</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-4595761.33127908</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-4595761.33127908</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-4595761.33127908</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-4230918.75137908</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-3678045.68857908</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-3678045.68857908</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-3678045.68857908</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-3669313.61317908</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-3655078.12057908</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-3334030.53847908</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-3177216.674479081</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-3301184.798279081</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-3173267.052079081</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-3173267.052079081</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-3469915.250479081</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-3348224.746079081</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-3519589.737279081</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-3204878.382979081</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-3734572.688179081</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-3401863.035579081</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-4307858.57417908</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-4050625.63937908</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-4050625.63937908</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-4324792.16567908</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-4324792.16567908</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-3920574.55327908</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4382530.985179081</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-4301718.07147908</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-4301718.07147908</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4784963.58647908</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-4784963.58647908</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-3993063.55497908</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-3900828.89347908</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-4170696.05347908</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-4442022.02987908</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-4442022.02987908</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-4077574.45097908</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-4210843.17387908</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-4465258.76827908</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-3426917.143079081</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-3426917.143079081</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-3264023.39237908</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
